--- a/InputData/io-model/ACTR/Avg Corp Tax Rate.xlsx
+++ b/InputData/io-model/ACTR/Avg Corp Tax Rate.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\io-model\ACTR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us-analysis\InputData\io-model\ACTR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6361653D-74BA-485C-9BF1-04243361AEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E90D01B-AFA7-4DB4-BC01-A60924BDA0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="ACTR" sheetId="2" r:id="rId2"/>
+    <sheet name="NBACTR" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Source:</t>
   </si>
@@ -64,6 +65,9 @@
   </si>
   <si>
     <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>NBACTR Non BAU Average Corporate Tax Rate</t>
   </si>
 </sst>
 </file>
@@ -428,54 +432,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -496,13 +505,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -597,7 +606,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -713,12 +722,253 @@
         <v>0.26</v>
       </c>
       <c r="AD2">
-        <f t="shared" ref="AD2:AM2" si="3">$B$2</f>
+        <f t="shared" ref="AD2:AE2" si="3">$B$2</f>
         <v>0.26</v>
       </c>
       <c r="AE2">
         <f t="shared" si="3"/>
         <v>0.26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1CF6ED-4020-42BD-AF96-F0A05751D6C6}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AE2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1">
+        <v>2021</v>
+      </c>
+      <c r="C1">
+        <v>2022</v>
+      </c>
+      <c r="D1">
+        <v>2023</v>
+      </c>
+      <c r="E1">
+        <v>2024</v>
+      </c>
+      <c r="F1">
+        <v>2025</v>
+      </c>
+      <c r="G1">
+        <v>2026</v>
+      </c>
+      <c r="H1">
+        <v>2027</v>
+      </c>
+      <c r="I1">
+        <v>2028</v>
+      </c>
+      <c r="J1">
+        <v>2029</v>
+      </c>
+      <c r="K1">
+        <v>2030</v>
+      </c>
+      <c r="L1">
+        <v>2031</v>
+      </c>
+      <c r="M1">
+        <v>2032</v>
+      </c>
+      <c r="N1">
+        <v>2033</v>
+      </c>
+      <c r="O1">
+        <v>2034</v>
+      </c>
+      <c r="P1">
+        <v>2035</v>
+      </c>
+      <c r="Q1">
+        <v>2036</v>
+      </c>
+      <c r="R1">
+        <v>2037</v>
+      </c>
+      <c r="S1">
+        <v>2038</v>
+      </c>
+      <c r="T1">
+        <v>2039</v>
+      </c>
+      <c r="U1">
+        <v>2040</v>
+      </c>
+      <c r="V1">
+        <v>2041</v>
+      </c>
+      <c r="W1">
+        <v>2042</v>
+      </c>
+      <c r="X1">
+        <v>2043</v>
+      </c>
+      <c r="Y1">
+        <v>2044</v>
+      </c>
+      <c r="Z1">
+        <v>2045</v>
+      </c>
+      <c r="AA1">
+        <v>2046</v>
+      </c>
+      <c r="AB1">
+        <v>2047</v>
+      </c>
+      <c r="AC1">
+        <v>2048</v>
+      </c>
+      <c r="AD1">
+        <v>2049</v>
+      </c>
+      <c r="AE1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>0.18</v>
+      </c>
+      <c r="C2">
+        <f>$B$2</f>
+        <v>0.18</v>
+      </c>
+      <c r="D2">
+        <f>$B$2</f>
+        <v>0.18</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:O2" si="0">$B$2</f>
+        <v>0.18</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="P2">
+        <f>$B$2</f>
+        <v>0.18</v>
+      </c>
+      <c r="Q2">
+        <f>$B$2</f>
+        <v>0.18</v>
+      </c>
+      <c r="R2">
+        <f t="shared" ref="R2:V2" si="1">$B$2</f>
+        <v>0.18</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
+      <c r="W2">
+        <f>$B$2</f>
+        <v>0.18</v>
+      </c>
+      <c r="X2">
+        <f>$B$2</f>
+        <v>0.18</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" ref="Y2:AA2" si="2">$B$2</f>
+        <v>0.18</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="2"/>
+        <v>0.18</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="2"/>
+        <v>0.18</v>
+      </c>
+      <c r="AB2">
+        <f>$B$2</f>
+        <v>0.18</v>
+      </c>
+      <c r="AC2">
+        <f>$B$2</f>
+        <v>0.18</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" ref="AD2:AE2" si="3">$B$2</f>
+        <v>0.18</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="3"/>
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/io-model/ACTR/Avg Corp Tax Rate.xlsx
+++ b/InputData/io-model/ACTR/Avg Corp Tax Rate.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us-analysis\InputData\io-model\ACTR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\io-model\ACTR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E90D01B-AFA7-4DB4-BC01-A60924BDA0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6361653D-74BA-485C-9BF1-04243361AEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="ACTR" sheetId="2" r:id="rId2"/>
-    <sheet name="NBACTR" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Source:</t>
   </si>
@@ -65,9 +64,6 @@
   </si>
   <si>
     <t>Tax Rate</t>
-  </si>
-  <si>
-    <t>NBACTR Non BAU Average Corporate Tax Rate</t>
   </si>
 </sst>
 </file>
@@ -432,59 +428,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -505,13 +496,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -606,7 +597,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -722,253 +713,12 @@
         <v>0.26</v>
       </c>
       <c r="AD2">
-        <f t="shared" ref="AD2:AE2" si="3">$B$2</f>
+        <f t="shared" ref="AD2:AM2" si="3">$B$2</f>
         <v>0.26</v>
       </c>
       <c r="AE2">
         <f t="shared" si="3"/>
         <v>0.26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1CF6ED-4020-42BD-AF96-F0A05751D6C6}">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:AE2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="45" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1">
-        <v>2021</v>
-      </c>
-      <c r="C1">
-        <v>2022</v>
-      </c>
-      <c r="D1">
-        <v>2023</v>
-      </c>
-      <c r="E1">
-        <v>2024</v>
-      </c>
-      <c r="F1">
-        <v>2025</v>
-      </c>
-      <c r="G1">
-        <v>2026</v>
-      </c>
-      <c r="H1">
-        <v>2027</v>
-      </c>
-      <c r="I1">
-        <v>2028</v>
-      </c>
-      <c r="J1">
-        <v>2029</v>
-      </c>
-      <c r="K1">
-        <v>2030</v>
-      </c>
-      <c r="L1">
-        <v>2031</v>
-      </c>
-      <c r="M1">
-        <v>2032</v>
-      </c>
-      <c r="N1">
-        <v>2033</v>
-      </c>
-      <c r="O1">
-        <v>2034</v>
-      </c>
-      <c r="P1">
-        <v>2035</v>
-      </c>
-      <c r="Q1">
-        <v>2036</v>
-      </c>
-      <c r="R1">
-        <v>2037</v>
-      </c>
-      <c r="S1">
-        <v>2038</v>
-      </c>
-      <c r="T1">
-        <v>2039</v>
-      </c>
-      <c r="U1">
-        <v>2040</v>
-      </c>
-      <c r="V1">
-        <v>2041</v>
-      </c>
-      <c r="W1">
-        <v>2042</v>
-      </c>
-      <c r="X1">
-        <v>2043</v>
-      </c>
-      <c r="Y1">
-        <v>2044</v>
-      </c>
-      <c r="Z1">
-        <v>2045</v>
-      </c>
-      <c r="AA1">
-        <v>2046</v>
-      </c>
-      <c r="AB1">
-        <v>2047</v>
-      </c>
-      <c r="AC1">
-        <v>2048</v>
-      </c>
-      <c r="AD1">
-        <v>2049</v>
-      </c>
-      <c r="AE1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>0.18</v>
-      </c>
-      <c r="C2">
-        <f>$B$2</f>
-        <v>0.18</v>
-      </c>
-      <c r="D2">
-        <f>$B$2</f>
-        <v>0.18</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ref="E2:O2" si="0">$B$2</f>
-        <v>0.18</v>
-      </c>
-      <c r="F2">
-        <f t="shared" si="0"/>
-        <v>0.18</v>
-      </c>
-      <c r="G2">
-        <f t="shared" si="0"/>
-        <v>0.18</v>
-      </c>
-      <c r="H2">
-        <f t="shared" si="0"/>
-        <v>0.18</v>
-      </c>
-      <c r="I2">
-        <f t="shared" si="0"/>
-        <v>0.18</v>
-      </c>
-      <c r="J2">
-        <f t="shared" si="0"/>
-        <v>0.18</v>
-      </c>
-      <c r="K2">
-        <f t="shared" si="0"/>
-        <v>0.18</v>
-      </c>
-      <c r="L2">
-        <f t="shared" si="0"/>
-        <v>0.18</v>
-      </c>
-      <c r="M2">
-        <f t="shared" si="0"/>
-        <v>0.18</v>
-      </c>
-      <c r="N2">
-        <f t="shared" si="0"/>
-        <v>0.18</v>
-      </c>
-      <c r="O2">
-        <f t="shared" si="0"/>
-        <v>0.18</v>
-      </c>
-      <c r="P2">
-        <f>$B$2</f>
-        <v>0.18</v>
-      </c>
-      <c r="Q2">
-        <f>$B$2</f>
-        <v>0.18</v>
-      </c>
-      <c r="R2">
-        <f t="shared" ref="R2:V2" si="1">$B$2</f>
-        <v>0.18</v>
-      </c>
-      <c r="S2">
-        <f t="shared" si="1"/>
-        <v>0.18</v>
-      </c>
-      <c r="T2">
-        <f t="shared" si="1"/>
-        <v>0.18</v>
-      </c>
-      <c r="U2">
-        <f t="shared" si="1"/>
-        <v>0.18</v>
-      </c>
-      <c r="V2">
-        <f t="shared" si="1"/>
-        <v>0.18</v>
-      </c>
-      <c r="W2">
-        <f>$B$2</f>
-        <v>0.18</v>
-      </c>
-      <c r="X2">
-        <f>$B$2</f>
-        <v>0.18</v>
-      </c>
-      <c r="Y2">
-        <f t="shared" ref="Y2:AA2" si="2">$B$2</f>
-        <v>0.18</v>
-      </c>
-      <c r="Z2">
-        <f t="shared" si="2"/>
-        <v>0.18</v>
-      </c>
-      <c r="AA2">
-        <f t="shared" si="2"/>
-        <v>0.18</v>
-      </c>
-      <c r="AB2">
-        <f>$B$2</f>
-        <v>0.18</v>
-      </c>
-      <c r="AC2">
-        <f>$B$2</f>
-        <v>0.18</v>
-      </c>
-      <c r="AD2">
-        <f t="shared" ref="AD2:AE2" si="3">$B$2</f>
-        <v>0.18</v>
-      </c>
-      <c r="AE2">
-        <f t="shared" si="3"/>
-        <v>0.18</v>
       </c>
     </row>
   </sheetData>
